--- a/excel2json-master/BossMonster_Data.xlsx
+++ b/excel2json-master/BossMonster_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C27CD4-A069-4B53-9E91-2FBDF10671A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CA3ABE-6F1E-43EF-A4F8-50B93683AE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="1905" windowWidth="15510" windowHeight="12675" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="1950" yWindow="3165" windowWidth="23655" windowHeight="9765" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,14 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KappaBoss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,6 +61,18 @@
   </si>
   <si>
     <t>#BossMonster[{}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -76,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +119,13 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -144,7 +155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -168,6 +179,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,60 +500,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1">
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6">
         <v>10</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
@@ -545,112 +567,118 @@
         <v>1</v>
       </c>
       <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
         <v>0</v>
       </c>
-      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1">
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1">
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6">
         <v>50</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="6">
         <v>3</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <v>1.5</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" s="5" customFormat="1">
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1">
+      <c r="C4" s="4"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="6"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1">
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1">
+      <c r="C5" s="4"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="6"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1">
-      <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1">
+      <c r="C6" s="4"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" s="5" customFormat="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1">
+      <c r="C7" s="4"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="6"/>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" s="5" customFormat="1">
-      <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1">
+      <c r="C8" s="4"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" s="5" customFormat="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1">
+      <c r="C9" s="4"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" s="5" customFormat="1">
-      <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1">
+      <c r="C10" s="4"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" s="5" customFormat="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1">
+      <c r="C11" s="4"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel2json-master/BossMonster_Data.xlsx
+++ b/excel2json-master/BossMonster_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CA3ABE-6F1E-43EF-A4F8-50B93683AE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577F5498-CD76-47B1-869D-97E29F241CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="3165" windowWidth="23655" windowHeight="9765" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,21 +503,21 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" customWidth="1"/>
+    <col min="9" max="9" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -597,7 +597,7 @@
         <v>1.5</v>
       </c>
       <c r="H3" s="6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>

--- a/excel2json-master/BossMonster_Data.xlsx
+++ b/excel2json-master/BossMonster_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577F5498-CD76-47B1-869D-97E29F241CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB9CA3-320E-45AC-B66B-7C92E98AAB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="3120" yWindow="1890" windowWidth="15870" windowHeight="13260" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +137,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,7 +161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,6 +191,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,21 +512,21 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="15.09765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" customWidth="1"/>
-    <col min="9" max="9" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -557,14 +566,14 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1</v>
+      <c r="D2" s="10">
+        <v>150</v>
+      </c>
+      <c r="E2" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2</v>
       </c>
       <c r="G2" s="6">
         <v>1</v>

--- a/excel2json-master/BossMonster_Data.xlsx
+++ b/excel2json-master/BossMonster_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB9CA3-320E-45AC-B66B-7C92E98AAB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA787814-588C-4CA0-AC2E-04659FA190B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1890" windowWidth="15870" windowHeight="13260" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="2505" yWindow="2175" windowWidth="15870" windowHeight="13260" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -570,7 +570,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" s="10">
         <v>2</v>

--- a/excel2json-master/BossMonster_Data.xlsx
+++ b/excel2json-master/BossMonster_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA787814-588C-4CA0-AC2E-04659FA190B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB40C1A9-CA49-46CD-B5A7-204AABAC0CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2175" windowWidth="15870" windowHeight="13260" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="15015" yWindow="435" windowWidth="13575" windowHeight="14685" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HorseBoss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +69,10 @@
   </si>
   <si>
     <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeoriBoss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +512,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -531,13 +531,13 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -591,19 +591,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="6">
-        <v>50</v>
-      </c>
-      <c r="E3" s="6">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10">
+        <v>100</v>
+      </c>
+      <c r="E3" s="10">
         <v>2</v>
       </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
       <c r="G3" s="6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H3" s="6">
         <v>1.5</v>
